--- a/03_Scenario/時系列シート.xlsx
+++ b/03_Scenario/時系列シート.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomonori\OneDrive\つばめ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomonori\Documents\tsubamesoft\miyanagipj\03_Scenario\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
   <si>
     <t>時系列</t>
     <rPh sb="0" eb="3">
@@ -41,10 +41,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>かな</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ともや</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -59,16 +55,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>足を怪我</t>
-    <rPh sb="0" eb="1">
-      <t>アシ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>花火工房の後継を巡って両親と喧嘩</t>
     <rPh sb="0" eb="2">
       <t>ハナビ</t>
@@ -91,37 +77,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テロル計画</t>
-    <rPh sb="3" eb="5">
-      <t>ケイカク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>何もかも2番目　劣等感</t>
-    <rPh sb="0" eb="1">
-      <t>ナニ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>ニバンメ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>レットウカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>インターハイ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>撥ねられて死にかける</t>
-    <rPh sb="0" eb="1">
-      <t>ハ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>シ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -164,21 +120,307 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ともやを学校まで運搬</t>
+    <t>花火大会</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>臨時花火研究会発足</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検査打ち揚げ</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なつな</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旧実験室をかけてチェス</t>
+    <rPh sb="0" eb="1">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="1" eb="4">
+      <t>ジッケンシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>火薬配合</t>
+    <rPh sb="0" eb="2">
+      <t>カヤク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハイゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>材料集め</t>
+    <rPh sb="0" eb="2">
+      <t>ザイリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>星掛け</t>
+    <rPh sb="0" eb="1">
+      <t>ホシ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日乾し</t>
+    <rPh sb="0" eb="2">
+      <t>ヒボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>星掛け</t>
+    <rPh sb="0" eb="1">
+      <t>ホシ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玉込め</t>
+    <rPh sb="0" eb="1">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>薬詰</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ツメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玉張</t>
+    <rPh sb="0" eb="1">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ハリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テロ決行日</t>
+    <rPh sb="2" eb="4">
+      <t>ケッコウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入水</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウスイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト勉強会</t>
+    <rPh sb="3" eb="6">
+      <t>ベンキョウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終業式</t>
+    <rPh sb="0" eb="3">
+      <t>シュウギョウシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(ルート確定)実家を飛び出して高田家同棲開始</t>
     <rPh sb="4" eb="6">
-      <t>ガッコウ</t>
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジッカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>タカダ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ドウセイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(ルート確定)アルバムの写真について聞く</t>
+    <rPh sb="4" eb="6">
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(ルート確定)転倒しそうになった夏奈を助ける</t>
+    <rPh sb="4" eb="6">
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>テントウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ナツナ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>タス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>過去のアルバムの写真を見つける</t>
+    <rPh sb="0" eb="2">
+      <t>カコ</t>
     </rPh>
     <rPh sb="8" eb="10">
-      <t>ウンパン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>花火大会</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>臨時花火研究会発足</t>
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>親がいない間に東光寺工房で作業</t>
+    <rPh sb="0" eb="1">
+      <t>オヤ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>トウコウジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウボウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>轢死しようとする</t>
+    <rPh sb="0" eb="2">
+      <t>レキシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山道で歩けなくなる
+事故の時に怪我をしたと嘘をつく</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマミチ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アル</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジコ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケガ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ウソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なつなを助けて死にかける1-1</t>
+    <rPh sb="4" eb="5">
+      <t>タス</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>臨時花火研究会発足1-2</t>
     <rPh sb="0" eb="2">
       <t>リンジ</t>
     </rPh>
@@ -194,16 +436,138 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>臨時花火研究会発足</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テロル決行日</t>
+    <t>花火部加入 神林を連れてくる</t>
+    <rPh sb="0" eb="2">
+      <t>ハナビ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブ</t>
+    </rPh>
     <rPh sb="3" eb="5">
-      <t>ケッコウ</t>
+      <t>カニュウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンバヤシ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作戦会議1-3</t>
+    <rPh sb="0" eb="2">
+      <t>サクセン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>硫酸銅採石2-1</t>
+    <rPh sb="0" eb="3">
+      <t>リュウサンドウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サイセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-2旧実験室で作業</t>
+    <rPh sb="3" eb="4">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ジッケンシツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>親がいない間に東光寺工房で作業2-3</t>
+    <rPh sb="0" eb="1">
+      <t>オヤ</t>
     </rPh>
     <rPh sb="5" eb="6">
-      <t>ビ</t>
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>トウコウジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウボウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト勉強会2-4</t>
+    <rPh sb="3" eb="6">
+      <t>ベンキョウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルート分岐:検査打ち揚げ用の玉作成を
+誰とやるか3-1</t>
+    <rPh sb="3" eb="5">
+      <t>ブンキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケンサ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ダレ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期末試験 水琴親に作業がばれる　2-5</t>
+    <rPh sb="0" eb="2">
+      <t>キマツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ミコト</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オヤ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>打ち上げシステムをクラック</t>
+    <rPh sb="0" eb="1">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -254,7 +618,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -268,6 +632,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -553,10 +923,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E155"/>
+  <dimension ref="A1:F155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -564,6 +934,7 @@
     <col min="1" max="1" width="15.625" customWidth="1"/>
     <col min="2" max="2" width="33.25" customWidth="1"/>
     <col min="3" max="5" width="40.625" customWidth="1"/>
+    <col min="6" max="6" width="27.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -571,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -580,59 +951,26 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>42156</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>42157</v>
       </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
@@ -774,164 +1112,335 @@
         <v>42185</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A33" s="4">
         <v>42186</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="4">
         <v>42187</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="4">
         <v>42188</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="4">
         <v>42189</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A37" s="4">
         <v>42190</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E37" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="4">
         <v>42191</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" t="s">
+        <v>36</v>
+      </c>
+      <c r="F38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="4">
         <v>42192</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="F39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="4">
         <v>42193</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B40" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" t="s">
+        <v>37</v>
+      </c>
+      <c r="F40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="4">
         <v>42194</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="F41" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="4">
         <v>42195</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="F42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="4">
         <v>42196</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="4">
         <v>42197</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B44" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" t="s">
+        <v>31</v>
+      </c>
+      <c r="E44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="4">
         <v>42198</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B45" t="s">
+        <v>49</v>
+      </c>
+      <c r="F45" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="4">
         <v>42199</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="F46" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A47" s="4">
         <v>42200</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B47" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" t="s">
+        <v>34</v>
+      </c>
+      <c r="E47" t="s">
+        <v>35</v>
+      </c>
+      <c r="F47" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="4">
         <v>42201</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="F48" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="4">
         <v>42202</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="F49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="4">
         <v>42203</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="F50" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="4">
         <v>42204</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="F51" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="4">
         <v>42205</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="F52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="4">
         <v>42206</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="F53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="4">
         <v>42207</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="F54" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="4">
         <v>42208</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="F55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="4">
         <v>42209</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B56" t="s">
+        <v>32</v>
+      </c>
+      <c r="F56" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="4">
         <v>42210</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="C57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" t="s">
+        <v>50</v>
+      </c>
+      <c r="F57" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="4">
         <v>42211</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="F58" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="4">
         <v>42212</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="F59" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="4">
         <v>42213</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="4">
         <v>42214</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="4">
         <v>42215</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="4">
         <v>42216</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="D63" t="s">
+        <v>26</v>
+      </c>
+      <c r="E63" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="4">
         <v>42217</v>
+      </c>
+      <c r="C64" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
@@ -998,33 +1507,27 @@
       <c r="A77" s="4">
         <v>42230</v>
       </c>
-      <c r="D77" t="s">
-        <v>18</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>10</v>
+      <c r="E77" s="7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78" s="4">
         <v>42231</v>
       </c>
-      <c r="C78" t="s">
-        <v>15</v>
-      </c>
-      <c r="E78" s="5"/>
+      <c r="E78" s="7"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A79" s="4">
         <v>42232</v>
       </c>
-      <c r="E79" s="5"/>
+      <c r="E79" s="7"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A80" s="4">
         <v>42233</v>
       </c>
-      <c r="E80" s="5"/>
+      <c r="E80" s="7"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A81" s="4">
@@ -1398,5 +1901,6 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>